--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
@@ -678,26 +678,11 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -753,12 +738,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma 2" xfId="6"/>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1086,59 +1086,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="18.75" hidden="1" customHeight="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:23" ht="12" hidden="1" customHeight="1">
       <c r="A4" s="2"/>
@@ -1155,9 +1155,9 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1165,12 +1165,12 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="5.25" customHeight="1">
       <c r="A6" s="2"/>
@@ -1190,71 +1190,71 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="42" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="50" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="36" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="24" t="s">
         <v>29</v>
       </c>
@@ -1291,12 +1291,12 @@
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="25" t="s">
         <v>43</v>
       </c>
@@ -1362,298 +1362,301 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:23" ht="16.5">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="16.5">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" ht="16.5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:15" ht="16.5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="1:15" ht="16.5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:15" ht="16.5">
-      <c r="A23" s="54"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:15" ht="16.5">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="52" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="53"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="52" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="16.5">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:15" ht="16.5">
-      <c r="A27" s="54"/>
-      <c r="B27" s="52" t="s">
+      <c r="A27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="52" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="16.5">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" spans="1:15" ht="16.5">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" spans="1:15" ht="16.5">
-      <c r="A30" s="54"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:15" ht="16.5">
-      <c r="A31" s="54"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="6"/>
@@ -1779,23 +1782,13 @@
   </sheetData>
   <dataConsolidate topLabels="1"/>
   <mergeCells count="34">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="B7:B9"/>
@@ -1810,9 +1803,19 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:O5"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
@@ -681,6 +681,21 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,21 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1060,25 +1060,26 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6" style="10" customWidth="1"/>
     <col min="7" max="7" width="8" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="3.625" style="10" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0.875" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="6" customWidth="1"/>
-    <col min="12" max="13" width="11" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="6" customWidth="1"/>
-    <col min="15" max="15" width="10" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="6" customWidth="1"/>
     <col min="17" max="17" width="2.5" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.375" style="6" bestFit="1" customWidth="1"/>
@@ -1086,59 +1087,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="18.75" hidden="1" customHeight="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:23" ht="12" hidden="1" customHeight="1">
       <c r="A4" s="2"/>
@@ -1155,9 +1156,9 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1165,12 +1166,12 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:23" ht="5.25" customHeight="1">
       <c r="A6" s="2"/>
@@ -1190,71 +1191,71 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="42" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="47" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="33" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="51"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="34"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="24" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1273,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:23" s="21" customFormat="1" ht="53.25" customHeight="1">
+    <row r="10" spans="1:23" s="21" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1291,12 +1292,12 @@
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="25" t="s">
         <v>43</v>
       </c>
@@ -1377,50 +1378,50 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:23" ht="16.5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
     </row>
     <row r="17" spans="1:15" ht="16.5">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="26"/>
@@ -1438,27 +1439,27 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="27"/>
@@ -1492,9 +1493,9 @@
     </row>
     <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="27"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -1521,46 +1522,46 @@
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:15" ht="16.5">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="28"/>
@@ -1578,25 +1579,25 @@
       <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:15" ht="16.5">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="28"/>
@@ -1630,9 +1631,9 @@
     </row>
     <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -1782,13 +1783,10 @@
   </sheetData>
   <dataConsolidate topLabels="1"/>
   <mergeCells count="34">
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="B7:B9"/>
@@ -1803,6 +1801,13 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="L5:O5"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="G16:K16"/>
@@ -1812,22 +1817,15 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.19886363636363635" right="1.4204545454545454E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Italic"
 </oddHeader>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 

--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rptBaoCaoKeHoachVonNamDuocDuyet.xlsx
@@ -681,21 +681,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,6 +743,21 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1087,59 +1087,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="18.75" hidden="1" customHeight="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:23" ht="12" hidden="1" customHeight="1">
       <c r="A4" s="2"/>
@@ -1156,9 +1156,9 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1166,12 +1166,12 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="5.25" customHeight="1">
       <c r="A6" s="2"/>
@@ -1191,71 +1191,71 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:23" s="8" customFormat="1" ht="42" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="52" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="38" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="51"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="24" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
     </row>
-    <row r="10" spans="1:23" s="21" customFormat="1" ht="45" customHeight="1">
+    <row r="10" spans="1:23" s="21" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1292,12 +1292,12 @@
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="25" t="s">
         <v>43</v>
       </c>
@@ -1378,50 +1378,50 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="1:23" ht="16.5">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34" t="s">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="1:15" ht="16.5">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="26"/>
@@ -1439,27 +1439,27 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="16.5">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34" t="s">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" ht="16.5">
       <c r="A20" s="27"/>
@@ -1493,9 +1493,9 @@
     </row>
     <row r="22" spans="1:15" ht="16.5">
       <c r="A22" s="27"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
@@ -1522,46 +1522,46 @@
       <c r="M23" s="28"/>
     </row>
     <row r="24" spans="1:15" ht="16.5">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="34" t="s">
+      <c r="L24" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
     </row>
     <row r="25" spans="1:15" ht="16.5">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" ht="16.5">
       <c r="A26" s="28"/>
@@ -1579,25 +1579,25 @@
       <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:15" ht="16.5">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
-      <c r="L27" s="34" t="s">
+      <c r="L27" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="1:15" ht="16.5">
       <c r="A28" s="28"/>
@@ -1631,9 +1631,9 @@
     </row>
     <row r="30" spans="1:15" ht="16.5">
       <c r="A30" s="28"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -1783,6 +1783,24 @@
   </sheetData>
   <dataConsolidate topLabels="1"/>
   <mergeCells count="34">
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="L27:O27"/>
@@ -1799,24 +1817,6 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="G19:K19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19886363636363635" right="1.4204545454545454E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
